--- a/x64/Release/testdata/铁塔纠偏数据/原始铁塔数据.xlsx
+++ b/x64/Release/testdata/铁塔纠偏数据/原始铁塔数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB2643C-84CB-4A11-8534-0C84131E577F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06862BF7-16DB-4C63-A1E9-FB16B1423B82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,15 +151,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -507,7 +501,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,11 +586,11 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2">
-        <v>114.34667504295078</v>
-      </c>
-      <c r="I3" s="2">
-        <v>24.739858909896835</v>
+      <c r="H3" s="1">
+        <v>116.67500913479149</v>
+      </c>
+      <c r="I3" s="1">
+        <v>35.432397318640213</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -610,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -621,11 +615,11 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3">
-        <v>114.345602970625</v>
-      </c>
-      <c r="I4" s="4">
-        <v>24.7417126187311</v>
+      <c r="H4" s="1">
+        <v>116.67155374827148</v>
+      </c>
+      <c r="I4" s="1">
+        <v>35.433041683531222</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -647,10 +641,10 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>114.34577169744399</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>24.741300455434398</v>
       </c>
     </row>
@@ -673,10 +667,10 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>114.345030920723</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>24.743374373620998</v>
       </c>
     </row>
@@ -699,10 +693,10 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>114.346814501148</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>24.738345167368902</v>
       </c>
     </row>

--- a/x64/Release/testdata/铁塔纠偏数据/原始铁塔数据.xlsx
+++ b/x64/Release/testdata/铁塔纠偏数据/原始铁塔数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06862BF7-16DB-4C63-A1E9-FB16B1423B82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633D966-B6B3-4C67-BF7C-5006E6DC9080}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>京密路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>67°01'41"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,9 +75,6 @@
   </si>
   <si>
     <t>67°01'46"</t>
-  </si>
-  <si>
-    <t>67°01'47"</t>
   </si>
 </sst>
 </file>
@@ -500,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,19 +545,19 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
-        <v>116.6731584278</v>
+        <v>116.67157299</v>
       </c>
       <c r="I2" s="1">
-        <v>35.432770485600003</v>
+        <v>35.43305075</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -578,19 +571,19 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
-        <v>116.67500913479149</v>
+        <v>116.67500114000001</v>
       </c>
       <c r="I3" s="1">
-        <v>35.432397318640213</v>
+        <v>35.432415329999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -604,22 +597,19 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1">
-        <v>116.67155374827148</v>
+        <v>116.67324936</v>
       </c>
       <c r="I4" s="1">
-        <v>35.433041683531222</v>
+        <v>35.432780289999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -633,19 +623,19 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2">
-        <v>114.34577169744399</v>
+        <v>116.67379293</v>
       </c>
       <c r="I5" s="2">
-        <v>24.741300455434398</v>
+        <v>35.43321907</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
@@ -659,45 +649,24 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2">
-        <v>114.345030920723</v>
+        <v>116.67129821</v>
       </c>
       <c r="I6" s="2">
-        <v>24.743374373620998</v>
+        <v>35.433570719999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2">
-        <v>114.346814501148</v>
-      </c>
-      <c r="I7" s="2">
-        <v>24.738345167368902</v>
       </c>
     </row>
   </sheetData>
